--- a/biology/Botanique/Nucleariae/Nucleariae.xlsx
+++ b/biology/Botanique/Nucleariae/Nucleariae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nucleariae sont un règne d'amiboïdes holomycètes qui sont les parents les plus proches des champignons du règne des Fungi.
-Ils comptent deux divisions, les Nuclearida et les Fonticulida[1]. Ce contenu est également couvert par le clade des Cristidiscoidea.
-Selon Galindo et al.[2], 2019, le cladogramme des Nuclearia est :
+Ils comptent deux divisions, les Nuclearida et les Fonticulida. Ce contenu est également couvert par le clade des Cristidiscoidea.
+Selon Galindo et al., 2019, le cladogramme des Nuclearia est :
 N.B. Faute de données moléculaires, Vampyrellidium, Pinaciophora, Elaeorhanis et Rabdiophrys ne sont pas identifiés dans ce cladogramme.
-D'après cette étude, le dernier ancêtre commun des Nucleariae était une amibe d'eau douce bactérivore, à filaments pseudopodes, non flagellée et mucilagineuse. Par la suite, deux groupes se sont différenciés avec les Nuclearidea de grande taille et les Fonticulida plus petites, conduisant à des spécialisations écologiques différentes. Le clade Pompholyxophrys + Lithocolla a développé des revêtements cellulaires endogènes ou exogènes à partir d'un ancêtre de type Nuclearia (idiosomes chez les Pompholyxophryidae et xénosomes chez les Lithocollidae)[2].
+D'après cette étude, le dernier ancêtre commun des Nucleariae était une amibe d'eau douce bactérivore, à filaments pseudopodes, non flagellée et mucilagineuse. Par la suite, deux groupes se sont différenciés avec les Nuclearidea de grande taille et les Fonticulida plus petites, conduisant à des spécialisations écologiques différentes. Le clade Pompholyxophrys + Lithocolla a développé des revêtements cellulaires endogènes ou exogènes à partir d'un ancêtre de type Nuclearia (idiosomes chez les Pompholyxophryidae et xénosomes chez les Lithocollidae).
 </t>
         </is>
       </c>
